--- a/Excel/BattleLevelConfig.xlsx
+++ b/Excel/BattleLevelConfig.xlsx
@@ -1,93 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Software\Unity\UnityProject\ET-EUI\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\MyET\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2966253D-5291-465D-8B75-53E42EDE43C3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E344D6D8-C04F-49D2-995B-B3BF0A9F83E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" tabRatio="809" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1665" yWindow="840" windowWidth="22140" windowHeight="13920" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="AIConfig_1" sheetId="6" r:id="rId1"/>
-    <sheet name="AIConfig_2" sheetId="7" r:id="rId2"/>
+    <sheet name="BattleLevelConfig" sheetId="7" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
-  <si>
-    <t>cs</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Id</t>
   </si>
   <si>
-    <t>所属ai</t>
-  </si>
-  <si>
-    <t>此ai中的顺序</t>
-  </si>
-  <si>
-    <t>节点名字</t>
-  </si>
-  <si>
-    <t>描述</t>
-  </si>
-  <si>
-    <t>节点参数</t>
-  </si>
-  <si>
-    <t>AIConfigId</t>
-  </si>
-  <si>
-    <t>Order</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Desc</t>
-  </si>
-  <si>
-    <t>NodeParams</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>int[]</t>
-  </si>
-  <si>
-    <t>AI_Attack</t>
-  </si>
-  <si>
-    <t>攻击</t>
-  </si>
-  <si>
-    <t>AI_XunLuo</t>
-  </si>
-  <si>
-    <t>巡逻</t>
-  </si>
-  <si>
     <t>怪物列表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>怪物数量</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -111,22 +65,6 @@
         <charset val="134"/>
       </rPr>
       <t>onsterIds</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>onsterCount</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -673,163 +611,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G3:G4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="9.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C6" s="2">
-        <f>D6*100+E6</f>
-        <v>101</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C7" s="2">
-        <f>D7*100+E7</f>
-        <v>102</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -868,60 +654,54 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>23</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="G3" s="4"/>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G4" s="4"/>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="4"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -931,15 +711,13 @@
       <c r="D6" s="6">
         <v>1002</v>
       </c>
-      <c r="E6" s="6">
-        <v>1</v>
+      <c r="E6" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>31</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C7" s="7">
@@ -948,15 +726,13 @@
       <c r="D7" s="7">
         <v>1003</v>
       </c>
-      <c r="E7" s="7">
-        <v>2</v>
+      <c r="E7" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>43</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C8" s="7">
@@ -965,15 +741,13 @@
       <c r="D8" s="6">
         <v>1004</v>
       </c>
-      <c r="E8" s="6">
-        <v>3</v>
+      <c r="E8" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>44</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C9" s="7">
@@ -982,15 +756,13 @@
       <c r="D9" s="7">
         <v>1005</v>
       </c>
-      <c r="E9" s="7">
-        <v>4</v>
+      <c r="E9" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>45</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C10" s="7">
@@ -999,15 +771,13 @@
       <c r="D10" s="6">
         <v>1006</v>
       </c>
-      <c r="E10" s="6">
-        <v>5</v>
+      <c r="E10" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>46</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C11" s="7">
@@ -1016,15 +786,13 @@
       <c r="D11" s="7">
         <v>1007</v>
       </c>
-      <c r="E11" s="7">
-        <v>6</v>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>47</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C12" s="7">
@@ -1033,15 +801,13 @@
       <c r="D12" s="6">
         <v>1008</v>
       </c>
-      <c r="E12" s="6">
-        <v>7</v>
+      <c r="E12" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>48</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C13" s="7">
@@ -1050,15 +816,13 @@
       <c r="D13" s="7">
         <v>1009</v>
       </c>
-      <c r="E13" s="7">
-        <v>8</v>
+      <c r="E13" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>49</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C14" s="7">
@@ -1067,15 +831,13 @@
       <c r="D14" s="6">
         <v>1010</v>
       </c>
-      <c r="E14" s="6">
-        <v>9</v>
+      <c r="E14" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>50</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C15" s="7">
@@ -1084,15 +846,13 @@
       <c r="D15" s="7">
         <v>1011</v>
       </c>
-      <c r="E15" s="7">
-        <v>10</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="8">
+      <c r="E15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="8">
         <v>90100</v>
       </c>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C16" s="7">
@@ -1101,15 +861,13 @@
       <c r="D16" s="6">
         <v>1012</v>
       </c>
-      <c r="E16" s="6">
-        <v>11</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="8">
+      <c r="E16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="8">
         <v>100110</v>
       </c>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C17" s="7">
@@ -1118,15 +876,13 @@
       <c r="D17" s="7">
         <v>1013</v>
       </c>
-      <c r="E17" s="7">
-        <v>12</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="8">
+      <c r="E17" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="8">
         <v>110120</v>
       </c>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C18" s="7"/>

--- a/Excel/BattleLevelConfig.xlsx
+++ b/Excel/BattleLevelConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\MyET\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E344D6D8-C04F-49D2-995B-B3BF0A9F83E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0732A435-EF15-48AB-A649-4656FE0A4286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1665" yWindow="840" windowWidth="22140" windowHeight="13920" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="660" windowWidth="22140" windowHeight="13920" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BattleLevelConfig" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>Id</t>
   </si>
@@ -206,11 +206,30 @@
     <t>80,90</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>1002,1002,1002</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>90,100</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,110</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>110,120</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -312,13 +331,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -336,10 +358,20 @@
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -615,14 +647,14 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="9.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="23.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.125" style="1" customWidth="1"/>
@@ -708,13 +740,13 @@
       <c r="C6" s="6">
         <v>1</v>
       </c>
-      <c r="D6" s="6">
-        <v>1002</v>
+      <c r="D6" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="7"/>
@@ -723,13 +755,13 @@
       <c r="C7" s="7">
         <v>2</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="10">
         <v>1003</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="10" t="s">
         <v>24</v>
       </c>
       <c r="G7" s="7"/>
@@ -738,13 +770,13 @@
       <c r="C8" s="7">
         <v>3</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="11">
         <v>1004</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="10" t="s">
         <v>25</v>
       </c>
       <c r="G8" s="7"/>
@@ -753,13 +785,13 @@
       <c r="C9" s="7">
         <v>4</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="10">
         <v>1005</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G9" s="7"/>
@@ -768,13 +800,13 @@
       <c r="C10" s="7">
         <v>5</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="11">
         <v>1006</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="10" t="s">
         <v>27</v>
       </c>
       <c r="G10" s="7"/>
@@ -783,13 +815,13 @@
       <c r="C11" s="7">
         <v>6</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="10">
         <v>1007</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="10" t="s">
         <v>28</v>
       </c>
       <c r="G11" s="7"/>
@@ -798,13 +830,13 @@
       <c r="C12" s="7">
         <v>7</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="11">
         <v>1008</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="10" t="s">
         <v>29</v>
       </c>
       <c r="G12" s="7"/>
@@ -813,13 +845,13 @@
       <c r="C13" s="7">
         <v>8</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="10">
         <v>1009</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="10" t="s">
         <v>30</v>
       </c>
       <c r="G13" s="7"/>
@@ -828,13 +860,13 @@
       <c r="C14" s="7">
         <v>9</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="11">
         <v>1010</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="10" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="7"/>
@@ -843,14 +875,14 @@
       <c r="C15" s="7">
         <v>10</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="10">
         <v>1011</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="8">
-        <v>90100</v>
+      <c r="F15" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="G15" s="8"/>
     </row>
@@ -858,14 +890,14 @@
       <c r="C16" s="7">
         <v>11</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="11">
         <v>1012</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="8">
-        <v>100110</v>
+      <c r="F16" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="G16" s="8"/>
     </row>
@@ -873,14 +905,14 @@
       <c r="C17" s="7">
         <v>12</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="10">
         <v>1013</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="8">
-        <v>110120</v>
+      <c r="F17" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="G17" s="8"/>
     </row>

--- a/Excel/BattleLevelConfig.xlsx
+++ b/Excel/BattleLevelConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\MyET\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0732A435-EF15-48AB-A649-4656FE0A4286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190036DB-6F9F-481D-BBC1-9C2FA34C0D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="660" windowWidth="22140" windowHeight="13920" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="1080" windowWidth="22140" windowHeight="13920" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BattleLevelConfig" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Id</t>
   </si>
@@ -220,6 +220,18 @@
   </si>
   <si>
     <t>110,120</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗胜利获得的经验值</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RewardExp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -340,7 +352,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -353,9 +365,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -647,7 +656,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -657,7 +666,7 @@
     <col min="4" max="4" width="32" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="23.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.375" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
@@ -697,7 +706,9 @@
       <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -715,7 +726,9 @@
       <c r="F4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
@@ -733,188 +746,214 @@
       <c r="F5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C6" s="6">
         <v>1</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C7" s="7">
         <v>2</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>1003</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="7"/>
+      <c r="G7" s="7">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C8" s="7">
         <v>3</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>1004</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="7">
+        <v>20</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C9" s="7">
         <v>4</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>1005</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="7"/>
+      <c r="G9" s="7">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C10" s="7">
         <v>5</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>1006</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="7">
+        <v>40</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C11" s="7">
         <v>6</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>1007</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="7"/>
+      <c r="G11" s="7">
+        <v>50</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C12" s="7">
         <v>7</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>1008</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="7"/>
+      <c r="G12" s="7">
+        <v>60</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C13" s="7">
         <v>8</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>1009</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="7"/>
+      <c r="G13" s="7">
+        <v>70</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C14" s="7">
         <v>9</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <v>1010</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="7"/>
+      <c r="G14" s="7">
+        <v>80</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C15" s="7">
         <v>10</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>1011</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="8"/>
+      <c r="G15" s="7">
+        <v>90</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C16" s="7">
         <v>11</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <v>1012</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="G16" s="8"/>
+      <c r="G16" s="7">
+        <v>100</v>
+      </c>
     </row>
     <row r="17" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C17" s="7">
         <v>12</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <v>1013</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="8"/>
+      <c r="G17" s="7">
+        <v>110</v>
+      </c>
     </row>
     <row r="18" spans="3:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C18" s="7"/>
